--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>356678.6446041708</v>
+        <v>376293.3082743287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556147</v>
+        <v>2629876.587221767</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839641</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4847408.833153756</v>
+        <v>4902171.467891437</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="7">
@@ -1063,22 +1063,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1792675346265591</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1139,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F8" t="n">
-        <v>12.35200489467393</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H8" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1218,16 +1218,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1792675346265591</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.59002526031614</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36130568012912</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="13">
@@ -1570,16 +1570,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T13" t="n">
-        <v>19.72731862540289</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.36130568012912</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,16 +1649,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W15" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T16" t="n">
-        <v>22.44875936050941</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2044,28 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>13.56983118520883</v>
       </c>
       <c r="I21" t="n">
-        <v>49.45972639891031</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,52 +2251,52 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,25 +2318,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E23" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,19 +2397,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>49.98213474053743</v>
       </c>
       <c r="G24" t="n">
-        <v>91.10663889794492</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2567,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,31 +2631,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.4011004797998</v>
       </c>
       <c r="C27" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,28 +2834,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.24443026103606</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2919,22 +2919,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>9.894394903258249</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2956,58 +2956,58 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>84.47305450481102</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>95.23425580603923</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3463,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="C39" t="n">
-        <v>131.3980055647953</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>207.6457886767425</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,10 +3819,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>136.2868555448613</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>142.3814175867069</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="46">
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H46" t="n">
-        <v>22.4487593605094</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4174,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M2" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N2" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S2" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T2" t="n">
-        <v>100.2684856730375</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U2" t="n">
-        <v>100.2684856730375</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="V2" t="n">
-        <v>72.39977328887976</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="W2" t="n">
-        <v>44.53106090472204</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="X2" t="n">
-        <v>16.66234852056432</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M3" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N3" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O3" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P3" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>57.94462678914073</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.07591440498301</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="G4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="H4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="I4" t="n">
-        <v>2.207202020825291</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
-        <v>2.207202020825291</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.87121125924466</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R4" t="n">
-        <v>50.00249887508694</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S4" t="n">
-        <v>22.13378649092923</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.207202020825291</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C5" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D5" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E5" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F5" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>55.73185102583861</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N5" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O5" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S5" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T5" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U5" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V5" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W5" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X5" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C6" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>84.14957704396423</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N6" t="n">
-        <v>110.3601010412646</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O6" t="n">
-        <v>110.3601010412646</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X6" t="n">
-        <v>57.94462678914073</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F7" t="n">
-        <v>108.3077753610589</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G7" t="n">
-        <v>80.43906297690118</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H7" t="n">
-        <v>52.57035059274347</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I7" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F8" t="n">
-        <v>97.8833284203818</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G8" t="n">
-        <v>70.01461603622408</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H8" t="n">
-        <v>42.14590365206637</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N8" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M9" t="n">
-        <v>55.73185102583861</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N9" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V9" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W9" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>108.3077753610589</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H10" t="n">
-        <v>80.43906297690118</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I10" t="n">
-        <v>52.57035059274347</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J10" t="n">
-        <v>24.70163820858575</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H11" t="n">
-        <v>14.27719126790864</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I11" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M11" t="n">
-        <v>84.14957704396423</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N11" t="n">
-        <v>110.3601010412646</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O11" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>72.39977328887976</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S11" t="n">
-        <v>44.53106090472204</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T11" t="n">
-        <v>16.66234852056432</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M12" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N12" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O12" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U12" t="n">
-        <v>2.207202020825291</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W12" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X12" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.87121125924466</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R13" t="n">
-        <v>50.00249887508694</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S13" t="n">
-        <v>22.13378649092923</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.39977328887976</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>72.39977328887976</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>72.39977328887976</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>44.53106090472204</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N14" t="n">
-        <v>56.83545203625125</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O14" t="n">
-        <v>84.14957704396423</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>100.2684856730375</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S14" t="n">
-        <v>100.2684856730375</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T14" t="n">
-        <v>100.2684856730375</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U14" t="n">
-        <v>100.2684856730375</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V14" t="n">
-        <v>100.2684856730375</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W14" t="n">
-        <v>100.2684856730375</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X14" t="n">
-        <v>100.2684856730375</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y14" t="n">
-        <v>100.2684856730375</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S15" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T15" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U15" t="n">
-        <v>54.62267627294912</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V15" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>108.4888536788635</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.62014129470579</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R16" t="n">
-        <v>52.75142891054807</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S16" t="n">
-        <v>24.88271652639035</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C17" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D17" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E17" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F17" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M17" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O17" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S17" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T17" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U17" t="n">
-        <v>123.1178524655551</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V17" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W17" t="n">
-        <v>43.15042425981653</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X17" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F18" t="n">
-        <v>83.88827101547153</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G18" t="n">
-        <v>43.90455691260225</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H18" t="n">
-        <v>3.920842809732961</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I18" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N18" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O18" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>53.22875997826529</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S19" t="n">
-        <v>53.22875997826529</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T19" t="n">
-        <v>53.22875997826529</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U19" t="n">
-        <v>13.245045875396</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V19" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W19" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>183.363730950278</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C21" t="n">
-        <v>183.363730950278</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="D21" t="n">
-        <v>183.363730950278</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="E21" t="n">
-        <v>183.363730950278</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="F21" t="n">
-        <v>183.363730950278</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="G21" t="n">
-        <v>183.363730950278</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="H21" t="n">
-        <v>69.99459535785734</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>634.6640077999109</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>391.2152311558108</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>183.363730950278</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y21" t="n">
-        <v>183.363730950278</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.3080510879349</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C24" t="n">
-        <v>111.3080510879349</v>
+        <v>377.9400125653411</v>
       </c>
       <c r="D24" t="n">
-        <v>111.3080510879349</v>
+        <v>229.0056029040899</v>
       </c>
       <c r="E24" t="n">
-        <v>111.3080510879349</v>
+        <v>69.76814789863437</v>
       </c>
       <c r="F24" t="n">
-        <v>111.3080510879349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>487.2836868729568</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>487.2836868729568</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>279.5233881080029</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6175,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>132.7447050367114</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C27" t="n">
-        <v>817.1412885554689</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6339,16 +6339,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>521.0535470733607</v>
       </c>
     </row>
     <row r="28">
@@ -6403,19 +6403,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X29" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.6341941966871</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C30" t="n">
-        <v>110.1811649155601</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D30" t="n">
-        <v>110.1811649155601</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E30" t="n">
-        <v>110.1811649155601</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F30" t="n">
-        <v>110.1811649155601</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G30" t="n">
-        <v>110.1811649155601</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>110.1811649155601</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,13 +6546,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="X30" t="n">
-        <v>452.8495312167552</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="Y30" t="n">
-        <v>452.8495312167552</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,10 +6722,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
         <v>749.627473042513</v>
@@ -6734,16 +6734,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>487.2836868729568</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6880,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
         <v>829.5248650203655</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.0338015341832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7023,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>867.860937524738</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>867.860937524738</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>867.860937524738</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>867.860937524738</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>867.860937524738</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>867.860937524738</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>660.0094373192052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>452.2491385542513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7111,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7211,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>152.0064012564706</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7254,16 +7254,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
         <v>894.6625969973069</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>735.8335372470253</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>527.9820370414925</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y39" t="n">
-        <v>320.2217382765386</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="D41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="E41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="F41" t="n">
-        <v>249.6554098994793</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>249.6554098994793</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>121.3366408850131</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>301.4124924696717</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>518.3881197325759</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
-        <v>677.2267432698394</v>
+        <v>724.8382864425462</v>
       </c>
       <c r="O41" t="n">
-        <v>826.4216934124875</v>
+        <v>874.0332365851942</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T41" t="n">
-        <v>690.7324057104663</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U41" t="n">
-        <v>459.3986307850778</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V41" t="n">
-        <v>459.3986307850778</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W41" t="n">
-        <v>459.3986307850778</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="X41" t="n">
-        <v>459.3986307850778</v>
+        <v>496.626357174339</v>
       </c>
       <c r="Y41" t="n">
-        <v>459.3986307850778</v>
+        <v>496.626357174339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>396.2864991955701</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="C42" t="n">
-        <v>396.2864991955701</v>
+        <v>156.5807699261765</v>
       </c>
       <c r="D42" t="n">
-        <v>247.3520895343188</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E42" t="n">
-        <v>247.3520895343188</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>247.3520895343188</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>108.6212641169343</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>108.6212641169343</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>18.32163497409077</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>245.051867778464</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>437.313479773485</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="N42" t="n">
-        <v>437.313479773485</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="O42" t="n">
-        <v>664.0437125778583</v>
+        <v>693.8259377144041</v>
       </c>
       <c r="P42" t="n">
-        <v>846.6871901912091</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>916.0817487045384</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X42" t="n">
-        <v>772.262134980592</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="Y42" t="n">
-        <v>564.5018362156381</v>
+        <v>499.2491362273716</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="C43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="D43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="E43" t="n">
-        <v>18.32163497409077</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="F43" t="n">
-        <v>18.32163497409077</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="G43" t="n">
-        <v>18.32163497409077</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="H43" t="n">
-        <v>18.32163497409077</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="I43" t="n">
-        <v>18.32163497409077</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="J43" t="n">
-        <v>18.32163497409077</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="K43" t="n">
-        <v>18.32163497409077</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="L43" t="n">
-        <v>45.63575998180374</v>
+        <v>838.6458083585264</v>
       </c>
       <c r="M43" t="n">
-        <v>84.82379817402592</v>
+        <v>877.8338465507486</v>
       </c>
       <c r="N43" t="n">
-        <v>128.5146488294622</v>
+        <v>921.5246972061849</v>
       </c>
       <c r="O43" t="n">
-        <v>152.8539254643615</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P43" t="n">
-        <v>152.8539254643615</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.8539254643615</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="X43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.32163497409077</v>
+        <v>945.8639738410842</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.39977328887976</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C44" t="n">
-        <v>72.39977328887976</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D44" t="n">
-        <v>44.53106090472204</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E44" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F44" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G44" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M44" t="n">
-        <v>84.14957704396423</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N44" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>100.2684856730375</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T44" t="n">
-        <v>100.2684856730375</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U44" t="n">
-        <v>100.2684856730375</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V44" t="n">
-        <v>100.2684856730375</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W44" t="n">
-        <v>100.2684856730375</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X44" t="n">
-        <v>72.39977328887976</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.39977328887976</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C45" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L45" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M45" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N45" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O45" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W45" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X45" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.62267627294912</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C46" t="n">
-        <v>54.62267627294912</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D46" t="n">
-        <v>54.62267627294912</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E46" t="n">
-        <v>54.62267627294912</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F46" t="n">
-        <v>54.62267627294912</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G46" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H46" t="n">
-        <v>31.94716176738407</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>31.39257439093933</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>58.7066993986523</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>86.02082440636528</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>110.3601010412646</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.3601010412646</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R46" t="n">
-        <v>110.3601010412646</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S46" t="n">
-        <v>110.3601010412646</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T46" t="n">
-        <v>82.49138865710684</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U46" t="n">
-        <v>82.49138865710684</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V46" t="n">
-        <v>82.49138865710684</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W46" t="n">
-        <v>82.49138865710684</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X46" t="n">
-        <v>82.49138865710684</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.62267627294912</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M2" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
-        <v>160.4496841792801</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>262.2416917349371</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O5" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>157.8169888482831</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>164.3167157393088</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>158.9317373436494</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M11" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>168.6093106869682</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>257.6882366820029</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P14" t="n">
-        <v>257.7082725202194</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>169.0715212093943</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,10 +9091,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9252,16 +9252,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>169.3262404810591</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,22 +9957,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10914,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11069,13 +11069,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>389.8561176746349</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>303.7892960137443</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>367.5748169560088</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>336.3376824018375</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>217.6918724729571</v>
       </c>
       <c r="O42" t="n">
-        <v>371.616681620579</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,19 +11297,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N44" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L45" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -11388,13 +11388,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>169.0715212093943</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368.4232466287389</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
-        <v>300.1622332098187</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>361.3631590426092</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9431583895512</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22686,13 +22686,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>227.3936889116331</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>178.1829599431613</v>
+        <v>170.9075063754883</v>
       </c>
       <c r="Y3" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>130.8799781651428</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,13 +22790,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>357.6290758229753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.2860204813953</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G5" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22829,13 +22829,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9431583895512</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>227.3936889116331</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="7">
@@ -22951,22 +22951,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.2417804883047</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G7" t="n">
-        <v>140.4009540981426</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H7" t="n">
-        <v>134.6371472471234</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I7" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23027,22 +23027,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F8" t="n">
-        <v>394.5240408470375</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G8" t="n">
-        <v>387.7127122548189</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H8" t="n">
-        <v>311.884776855451</v>
+        <v>304.609323287778</v>
       </c>
       <c r="I8" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23106,16 +23106,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>87.93414998721002</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,16 +23191,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8117118238322</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.6371472471234</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J10" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23273,13 +23273,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>304.609323287778</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S11" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T11" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>248.9843472277074</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>197.9351083214361</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="13">
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R13" t="n">
-        <v>149.7033661168533</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S13" t="n">
-        <v>196.4265727766561</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2182708028786</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.1438164031645</v>
+        <v>347.8683628354914</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,10 +23501,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23513,10 +23513,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>208.1145838902768</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,16 +23537,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23622,19 +23622,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0931458435217</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>198.3513568206587</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V15" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W15" t="n">
-        <v>227.3936889116331</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R16" t="n">
-        <v>149.7033661168533</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S16" t="n">
-        <v>196.4265727766561</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T16" t="n">
-        <v>205.4968300677721</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23777,25 +23777,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>60.57395719080255</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23932,28 +23932,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>246.7351523946503</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>215.7321030277729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,16 +24011,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24063,10 +24063,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.66561305128764</v>
       </c>
       <c r="I21" t="n">
-        <v>39.93690645250477</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,25 +24206,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E23" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,13 +24260,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,19 +24285,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>95.08707765284646</v>
       </c>
       <c r="G24" t="n">
-        <v>46.23687826526572</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>331.6961560838159</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,19 +24488,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,31 +24519,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0.1320831700675456</v>
       </c>
       <c r="C27" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24579,13 +24579,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24643,10 +24643,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,7 +24692,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,28 +24722,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1522025903790194</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,22 +24807,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>222.906192246167</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24895,7 +24895,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24929,10 +24929,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24962,22 +24962,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,19 +25005,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,10 +25044,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>87.2101165990268</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,10 +25059,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,10 +25208,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25251,7 +25251,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.923578346603904</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25351,13 +25351,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25451,7 +25451,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>62.82012828698558</v>
       </c>
       <c r="C39" t="n">
-        <v>41.31049342352048</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>175.088052986738</v>
+        <v>146.2678482032095</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,13 +25637,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>110.4543649396325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25679,19 +25679,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>22.32521573170189</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>140.9617216776064</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,10 +25707,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>11.15821001977744</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25719,13 +25719,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25767,10 +25767,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>63.39156761677054</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25868,10 +25868,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>367.6197750375201</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,10 +25880,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25907,19 +25907,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,10 +25944,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>123.1437713153523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -26001,16 +26001,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W45" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
-        <v>178.1829599431613</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="46">
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>138.1649363967735</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H46" t="n">
-        <v>139.7784131469302</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26062,10 +26062,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26074,7 +26074,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345919.9803105748</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345919.9803105746</v>
+        <v>355290.560939793</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345919.9803105746</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345919.9803105748</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345919.9803105748</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355290.5609397932</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490077.4722130718</v>
+        <v>495368.7837729881</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345919.9803105745</v>
+        <v>355290.560939793</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69180.83107499292</v>
+        <v>71053.67965375917</v>
       </c>
       <c r="C2" t="n">
-        <v>69180.83107499291</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="D2" t="n">
-        <v>69180.83107499294</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="E2" t="n">
-        <v>69180.83107499292</v>
+        <v>71053.6796537592</v>
       </c>
       <c r="F2" t="n">
-        <v>69180.83107499291</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="G2" t="n">
+        <v>71731.80321071926</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99050.37600907715</v>
+      </c>
+      <c r="P2" t="n">
         <v>71053.67965375919</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879931</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97992.82944639151</v>
-      </c>
-      <c r="P2" t="n">
-        <v>69180.83107499292</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="C4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="D4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="E4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="F4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="G4" t="n">
-        <v>13925.73993505492</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>19427.1852776657</v>
+        <v>16801.53650439377</v>
       </c>
       <c r="P4" t="n">
-        <v>13543.27151380256</v>
+        <v>11897.85367509446</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11086.43399005021</v>
+        <v>9856.058660301889</v>
       </c>
       <c r="C6" t="n">
-        <v>20332.48602536312</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="D6" t="n">
-        <v>20332.48602536315</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="E6" t="n">
-        <v>53960.08602536313</v>
+        <v>56749.12625938484</v>
       </c>
       <c r="F6" t="n">
-        <v>53960.08602536312</v>
+        <v>56749.12625938482</v>
       </c>
       <c r="G6" t="n">
-        <v>51433.90515581202</v>
+        <v>55785.31907576995</v>
       </c>
       <c r="H6" t="n">
-        <v>10919.91186100969</v>
+        <v>15007.47814373183</v>
       </c>
       <c r="I6" t="n">
-        <v>65267.64986960471</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="J6" t="n">
-        <v>58048.88530039451</v>
+        <v>57771.16121025306</v>
       </c>
       <c r="K6" t="n">
-        <v>65267.64986960472</v>
+        <v>68128.04511405683</v>
       </c>
       <c r="L6" t="n">
-        <v>65267.64986960473</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="M6" t="n">
-        <v>65267.64986960475</v>
+        <v>68128.04511405691</v>
       </c>
       <c r="N6" t="n">
-        <v>65267.64986960473</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="O6" t="n">
-        <v>64641.20158841684</v>
+        <v>67871.70710229891</v>
       </c>
       <c r="P6" t="n">
-        <v>53960.08602536313</v>
+        <v>56749.12625938482</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M2" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P3" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O14" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P14" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,19 +37151,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37391,16 +37391,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37634,7 +37634,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>160.443054078044</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>72.55630025847472</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>229.0204371761346</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>194.2036484798192</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>86.35016038962375</v>
       </c>
       <c r="O42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,19 +38017,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N44" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38108,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376293.3082743287</v>
+        <v>373007.8661325563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221767</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891437</v>
+        <v>5117581.913230949</v>
       </c>
     </row>
     <row r="11">
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -938,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1500,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="13">
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1567,28 +1569,28 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1734,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="16">
@@ -1807,16 +1809,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1926,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>21.7973599200313</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>13.56983118520883</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>62.30512642017687</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,7 +2216,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2318,70 +2320,70 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2400,13 +2402,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>49.98213474053743</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>169.9804588624397</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,70 +2554,70 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>7.778646031951277</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.4011004797998</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.53119540779754</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.5847537007502174</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>9.894394903258249</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3047,7 +3049,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>84.47305450481102</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>47.50281385232029</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,19 +3395,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3500,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.7130553628818</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,73 +3660,73 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,13 +3821,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>136.2868555448613</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.969847303111962</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3904,49 +3906,49 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>39.58387696184059</v>
+        <v>50.46697834767995</v>
       </c>
       <c r="U44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>18.40882703545771</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.256111626157765</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4174,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>148.2438924791353</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>68.2764642733967</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V2" t="n">
-        <v>28.29275017052741</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W2" t="n">
-        <v>28.29275017052741</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X2" t="n">
-        <v>28.29275017052741</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R4" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>123.1178524655551</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>83.13413836268582</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T5" t="n">
-        <v>43.15042425981653</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.36807964162378</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="C6" t="n">
-        <v>38.38436553875449</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="Y6" t="n">
-        <v>118.3517937444931</v>
+        <v>48.8626583413347</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>120.7308247336138</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M9" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F11" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G11" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y11" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X12" t="n">
-        <v>43.15042425981653</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X14" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X15" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>42.79483382228227</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C18" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D18" t="n">
-        <v>137.2644294849704</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>137.2644294849704</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>137.2644294849704</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>92.68647758675968</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10852568854899</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>3.530573790338288</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>45.45613755060546</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>137.2644294849704</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D20" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5774,19 +5776,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
         <v>749.627473042513</v>
@@ -5795,7 +5797,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298.4948343740486</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C21" t="n">
-        <v>124.0418050929216</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="D21" t="n">
-        <v>124.0418050929216</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="E21" t="n">
-        <v>124.0418050929216</v>
+        <v>367.480997632204</v>
       </c>
       <c r="F21" t="n">
-        <v>124.0418050929216</v>
+        <v>220.946439659089</v>
       </c>
       <c r="G21" t="n">
-        <v>124.0418050929216</v>
+        <v>82.21561424170451</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>82.21561424170451</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5862,19 +5864,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W21" t="n">
-        <v>298.4948343740486</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X21" t="n">
-        <v>298.4948343740486</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y21" t="n">
-        <v>298.4948343740486</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="22">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>552.3930418464681</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>377.9400125653411</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>229.0056029040899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>69.76814789863437</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y24" t="n">
-        <v>720.6083788665362</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="25">
@@ -6166,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>738.7078125165641</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>738.7078125165641</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>352.9716273967953</v>
+        <v>258.59717057431</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>258.59717057431</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>258.59717057431</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.35971556885454</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.35971556885454</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.35971556885454</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>99.35971556885454</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W27" t="n">
-        <v>728.9050472788936</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X27" t="n">
-        <v>521.0535470733607</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y27" t="n">
-        <v>521.0535470733607</v>
+        <v>426.8125075943781</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6418,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>249.0657303232264</v>
+        <v>284.6244618379714</v>
       </c>
       <c r="C30" t="n">
-        <v>249.0657303232264</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="D30" t="n">
-        <v>249.0657303232264</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="E30" t="n">
-        <v>249.0657303232264</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="F30" t="n">
-        <v>249.0657303232264</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>110.1714325568443</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N30" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N30" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>249.0657303232264</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>249.0657303232264</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X30" t="n">
-        <v>249.0657303232264</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y30" t="n">
-        <v>249.0657303232264</v>
+        <v>284.6244618379714</v>
       </c>
     </row>
     <row r="31">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>777.5613083818946</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>777.5613083818946</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>777.5613083818946</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>777.5613083818946</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>777.5613083818946</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6882,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
         <v>829.5248650203655</v>
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y35" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="W35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>511.7666217610367</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>352.5291667555812</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>205.9946087824662</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>67.26378336508171</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7260,13 +7262,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7287,16 +7289,16 @@
         <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>298.4948343740486</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y39" t="n">
-        <v>298.4948343740486</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7372,10 +7374,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>735.4808960230977</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>496.626357174339</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C42" t="n">
-        <v>156.5807699261765</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>22.28098887093188</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>374.2379454030082</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>43.15042425981653</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>43.15042425981653</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>40.77139327069581</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>79.95943146291799</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>118.3517937444931</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>78.36807964162378</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U44" t="n">
-        <v>43.15042425981653</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V44" t="n">
-        <v>43.15042425981653</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W44" t="n">
-        <v>43.15042425981653</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X44" t="n">
-        <v>43.15042425981653</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>81.54278654139161</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>81.54278654139161</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>78.36807964162378</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X45" t="n">
-        <v>38.38436553875449</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8301,19 +8303,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9249,19 +9251,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,10 +9403,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2069195535496</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10668,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,10 +11150,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>217.6918724729571</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>273.750943367713</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>361.3631590426092</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>170.9075063754883</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>130.8799781651428</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22793,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22826,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>115.0036391131605</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>112.5795867366496</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,13 +22913,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22945,22 +22947,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>135.0922092853651</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23027,16 +23029,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>304.609323287778</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23109,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23166,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23194,13 +23196,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>142.2954822415181</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>304.609323287778</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,10 +23305,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23337,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23388,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>197.9351083214361</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="13">
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23455,28 +23457,28 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>347.8683628354914</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>338.3505636939955</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,13 +23542,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>127.6615662182428</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23622,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>136.8176922758487</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>212.111106199079</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="16">
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>376.4311200835105</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23814,22 +23816,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>125.6477056446075</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23935,19 +23937,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.66561305128764</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>27.09150643123821</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24102,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24206,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24288,13 +24290,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>95.08707765284646</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,16 +24338,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>62.82012828698561</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24455,16 +24457,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>331.6961560838159</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24494,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1320831700675456</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>10.86543744361754</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,10 +24578,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>111.6506905357463</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>222.906192246167</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24917,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24935,7 +24937,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24968,10 +24970,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.2101165990268</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,7 +25159,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="36">
@@ -25236,19 +25238,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>64.73263038417618</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25281,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62.82012828698558</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25527,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>68.76672313002641</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4100522814404</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>140.9617216776064</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>11.15821001977744</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>154.675233152289</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25865,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25883,10 +25885,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>183.5119726022908</v>
+        <v>172.6288712164514</v>
       </c>
       <c r="U44" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>126.6603853579262</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>138.1649363967735</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26062,10 +26064,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.560939793</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.7837729881</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.560939793</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.67965375917</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071927</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071921</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99050.37600907715</v>
-      </c>
-      <c r="P2" t="n">
-        <v>71053.67965375919</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16801.53650439377</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>11897.85367509446</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9856.058660301889</v>
+        <v>8614.632621000506</v>
       </c>
       <c r="C6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524475</v>
       </c>
       <c r="D6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524469</v>
       </c>
       <c r="E6" t="n">
-        <v>56749.12625938484</v>
+        <v>57031.93862524474</v>
       </c>
       <c r="F6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524474</v>
       </c>
       <c r="G6" t="n">
-        <v>55785.31907576995</v>
+        <v>14165.61021358456</v>
       </c>
       <c r="H6" t="n">
-        <v>15007.47814373183</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405688</v>
+        <v>68128.04511405683</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.16121025306</v>
+        <v>56581.12700406596</v>
       </c>
       <c r="K6" t="n">
         <v>68128.04511405683</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405689</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405691</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="N6" t="n">
+        <v>68128.04511405683</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20748.16689659304</v>
+      </c>
+      <c r="P6" t="n">
         <v>68128.04511405685</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67871.70710229891</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56749.12625938482</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37151,10 +37153,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>104.6525397736754</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>86.35016038962375</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>37.98452839772582</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325563</v>
+        <v>267281.5962860414</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230949</v>
+        <v>5765385.898601451</v>
       </c>
     </row>
     <row r="11">
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>38.87161743162454</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>42.20118209180435</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>28.88091821707973</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>69.67304477796255</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.12502610536669</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>142.3851395808584</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>44.13217237922859</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>38.87161743162454</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>204.9925338107584</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.87161743162454</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>118.4725791782776</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>44.13217237922859</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1809,13 +1809,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.7973599200313</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>90.91642501047011</v>
       </c>
     </row>
     <row r="19">
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>52.42556848774752</v>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>62.30512642017687</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>90.91642501047011</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>212.285385643442</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2383,7 +2383,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>169.9804588624397</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.53119540779754</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2730,37 +2730,37 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2791,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5847537007502174</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>216.7902623649748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,52 +3040,52 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>188.3087047739911</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>47.50281385232029</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,52 +3426,52 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3505,28 +3505,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>137.0062620734511</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2.969847303111962</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>66.52200288537669</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>50.46697834767995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>18.40882703545771</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>134.667568689459</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4146,43 +4146,43 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>137.2644294849704</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>92.68647758675968</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>3.530573790338288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>3.530573790338288</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>77.28117035226589</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T5" t="n">
-        <v>32.70321845405519</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.8626583413347</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="C6" t="n">
-        <v>48.8626583413347</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="D6" t="n">
-        <v>4.284706443124001</v>
+        <v>485.7295981386596</v>
       </c>
       <c r="E6" t="n">
-        <v>4.284706443124001</v>
+        <v>326.4921431332041</v>
       </c>
       <c r="F6" t="n">
-        <v>4.284706443124001</v>
+        <v>179.9575851600891</v>
       </c>
       <c r="G6" t="n">
-        <v>4.284706443124001</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>4.284706443124001</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>87.37278572049297</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>48.8626583413347</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>48.8626583413347</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>48.8626583413347</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X6" t="n">
-        <v>48.8626583413347</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.8626583413347</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>131.9507376187037</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C9" t="n">
-        <v>131.9507376187037</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="D9" t="n">
-        <v>131.9507376187037</v>
+        <v>163.1045164242111</v>
       </c>
       <c r="E9" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>45.45613755060546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>89.14698820604177</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
-        <v>132.8378388614781</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.9507376187037</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.3139342451479</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.37278572049297</v>
+        <v>453.6378659568754</v>
       </c>
       <c r="C12" t="n">
-        <v>42.79483382228227</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="D12" t="n">
-        <v>42.79483382228227</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E12" t="n">
-        <v>42.79483382228227</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F12" t="n">
-        <v>42.79483382228227</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G12" t="n">
-        <v>42.79483382228227</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>131.9507376187037</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>453.6378659568754</v>
       </c>
       <c r="V12" t="n">
-        <v>131.9507376187037</v>
+        <v>453.6378659568754</v>
       </c>
       <c r="W12" t="n">
-        <v>131.9507376187037</v>
+        <v>453.6378659568754</v>
       </c>
       <c r="X12" t="n">
-        <v>131.9507376187037</v>
+        <v>453.6378659568754</v>
       </c>
       <c r="Y12" t="n">
-        <v>87.37278572049297</v>
+        <v>453.6378659568754</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>149.3344187320537</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>104.756466833843</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>60.17851493563234</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="W15" t="n">
-        <v>131.9507376187037</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="X15" t="n">
-        <v>87.37278572049297</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.79483382228227</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>111.1159158480613</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>367.480997632204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>220.946439659089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>82.21561424170451</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>82.21561424170451</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>526.7184526376595</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5937,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,16 +6010,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
         <v>749.627473042513</v>
@@ -6031,10 +6031,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>361.9495094114078</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>361.9495094114078</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>361.9495094114078</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6168,7 +6168,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>258.59717057431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>258.59717057431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>258.59717057431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>99.35971556885454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>99.35971556885454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>99.35971556885454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>99.35971556885454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>634.6640077999109</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>634.6640077999109</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X27" t="n">
-        <v>426.8125075943781</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y27" t="n">
-        <v>426.8125075943781</v>
+        <v>90.73453560909468</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6408,28 +6408,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.6244618379714</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>110.1714325568443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>110.1714325568443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>110.1714325568443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>110.1714325568443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>110.1714325568443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
-        <v>492.3847606029253</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>284.6244618379714</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F32" t="n">
-        <v>718.7806050553886</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W33" t="n">
-        <v>23.90796037760316</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X33" t="n">
-        <v>23.90796037760316</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>511.7666217610367</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>352.5291667555812</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>205.9946087824662</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>67.26378336508171</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>660.701031422288</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>802.5825927271064</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C38" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X38" t="n">
-        <v>802.5825927271064</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y38" t="n">
-        <v>802.5825927271064</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>395.2567788952347</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
         <v>31.35113235729608</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>761.6974622895962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y41" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>171.2153985321831</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C42" t="n">
-        <v>171.2153985321831</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D42" t="n">
-        <v>22.28098887093188</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7496,46 +7496,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M42" t="n">
-        <v>249.2442489785619</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.4307355522512</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7596,25 +7596,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E44" t="n">
+        <v>366.1018663125844</v>
+      </c>
+      <c r="F44" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="F44" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
         <v>31.35113235729608</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W44" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X44" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y44" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>521.2549444941228</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>346.8019152129958</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>197.8675055517446</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>38.63005054628906</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
         <v>20.03527576299844</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W45" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X45" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7830,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10445,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.0697646493503</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>181.8154159451679</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>222.4647346907568</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>67.67047238524809</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>187.8163559756081</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22947,7 +22947,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22956,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>135.0922092853651</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23080,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>15.25994087454254</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>142.2954822415181</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>128.5763266090871</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,13 +23348,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>73.36382680487192</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.94884827021639</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23472,13 +23472,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>242.3908259573624</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3505636939955</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6615662182428</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>81.69214951654396</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>161.6408128242489</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23788,10 +23788,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23816,22 +23816,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>125.6477056446075</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>114.7662707668343</v>
       </c>
     </row>
     <row r="19">
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>27.09150643123821</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24098,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24271,7 +24271,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24338,22 +24338,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>62.82012828698561</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>95.79432507597421</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>10.86543744361754</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24739,10 +24739,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24776,10 +24776,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>111.6506905357463</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>9.151119715999982</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>37.63267730698377</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,13 +25171,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>330.2403360996553</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25238,19 +25238,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>64.73263038417618</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25393,28 +25393,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>298.998522982632</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25450,10 +25450,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>68.76672313002641</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>139.1387058269376</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25684,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>179.3857036041842</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>154.675233152289</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>185.1729802755429</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>316.4871080036351</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>172.6288712164514</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>126.6603853579262</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>37.01560241437878</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.80321071927</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.80321071921</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879943</v>
       </c>
       <c r="G2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="H2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879936</v>
-      </c>
       <c r="K2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879943</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879946</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879942</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.632621000506</v>
+        <v>-58486.99703753129</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524475</v>
+        <v>22282.43449401641</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524469</v>
+        <v>22282.43449401643</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524474</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524474</v>
+        <v>55910.03449401647</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358456</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406596</v>
+        <v>-7149.908105089815</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401646</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.16689659304</v>
+        <v>55910.03449401648</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401644</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36208,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36916,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37153,10 +37153,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37165,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267281.5962860414</v>
+        <v>361671.1651892322</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5765385.898601451</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
-        <v>104.7383832473596</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>70.34400780127524</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>69.67304477796255</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3851395808584</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>204.9925338107584</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
-        <v>118.4725791782776</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W16" t="n">
-        <v>130.4655268502615</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>112.4209419907528</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>90.91642501047011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,17 +2080,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2098,49 +2098,49 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>52.42556848774752</v>
-      </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>90.91642501047011</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>54.09142469194307</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2332,55 +2332,55 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>52.42556848774752</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>70.73885857389313</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>52.42556848774763</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7704396220186</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>216.7902623649748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>188.3087047739911</v>
+        <v>124.0051303913026</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,25 +3271,25 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>57.81343218737562</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3748,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>104.0508854668113</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>66.52200288537669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3912,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3988,19 +3988,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4030,16 +4030,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W2" t="n">
-        <v>467.067986854209</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>223.6192102101089</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>731.528039392485</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T5" t="n">
-        <v>506.1786963984129</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U5" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634.6640077999109</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>634.6640077999109</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>485.7295981386596</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>326.4921431332041</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>179.9575851600891</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W6" t="n">
-        <v>634.6640077999109</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X6" t="n">
-        <v>634.6640077999109</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y6" t="n">
-        <v>634.6640077999109</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>223.6192102101089</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>223.6192102101089</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>312.0389260854624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>312.0389260854624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>163.1045164242111</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W9" t="n">
-        <v>312.0389260854624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X9" t="n">
-        <v>312.0389260854624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>312.0389260854624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>942.6594228129348</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>731.528039392485</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>453.6378659568754</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>279.1848366757484</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>279.1848366757484</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>279.1848366757484</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>132.6502787026334</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T12" t="n">
-        <v>660.701031422288</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U12" t="n">
-        <v>453.6378659568754</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V12" t="n">
-        <v>453.6378659568754</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W12" t="n">
-        <v>453.6378659568754</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>453.6378659568754</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>453.6378659568754</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.7341723913397</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>569.8010096169406</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>569.8010096169406</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V15" t="n">
-        <v>569.8010096169406</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W15" t="n">
-        <v>569.8010096169406</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X15" t="n">
-        <v>361.9495094114078</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y15" t="n">
-        <v>361.9495094114078</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>467.067986854209</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C17" t="n">
-        <v>467.067986854209</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D17" t="n">
-        <v>467.067986854209</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
         <v>262.7299197543128</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>710.516763498309</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>467.067986854209</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W17" t="n">
-        <v>467.067986854209</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X17" t="n">
-        <v>467.067986854209</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y17" t="n">
-        <v>467.067986854209</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>562.4161926976942</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>562.4161926976942</v>
+        <v>575.9137744528243</v>
       </c>
       <c r="W18" t="n">
-        <v>318.9674160535941</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="X18" t="n">
-        <v>111.1159158480613</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>332.4649978087242</v>
       </c>
     </row>
     <row r="19">
@@ -5706,13 +5706,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
@@ -5737,13 +5737,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5834,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>470.5814199598456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5937,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="25">
@@ -6171,7 +6171,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>485.167420504237</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>118.0351436353046</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6341,16 +6341,16 @@
         <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>298.4948343740486</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>298.4948343740486</v>
+        <v>325.7954424002585</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.73453560909468</v>
+        <v>118.0351436353046</v>
       </c>
     </row>
     <row r="28">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>315.6850394389064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C29" t="n">
-        <v>315.6850394389064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>559.1338160830064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W29" t="n">
-        <v>315.6850394389064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X29" t="n">
-        <v>315.6850394389064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.6850394389064</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>470.4902185192667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>470.4902185192667</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>227.0414418751666</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6657,16 +6657,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>517.4848137278872</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>274.0360370837871</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>274.0360370837871</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W32" t="n">
-        <v>274.0360370837871</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X32" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>470.4902185192667</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V33" t="n">
-        <v>470.4902185192667</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W33" t="n">
-        <v>227.0414418751666</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="34">
@@ -6882,19 +6882,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>527.5764290961142</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C35" t="n">
-        <v>527.5764290961142</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D35" t="n">
-        <v>284.1276524520142</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E35" t="n">
-        <v>40.6788758079141</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F35" t="n">
-        <v>40.6788758079141</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G35" t="n">
-        <v>40.6788758079141</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U35" t="n">
-        <v>527.5764290961142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V35" t="n">
-        <v>527.5764290961142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W35" t="n">
-        <v>527.5764290961142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X35" t="n">
-        <v>527.5764290961142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y35" t="n">
-        <v>527.5764290961142</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>114.6452713866835</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>358.0940480307835</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>114.6452713866835</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>114.6452713866835</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y38" t="n">
-        <v>114.6452713866835</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>77.67854936008709</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7265,40 +7265,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>252.1315786412141</v>
       </c>
     </row>
     <row r="40">
@@ -7356,13 +7356,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F41" t="n">
-        <v>477.1596022224361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>179.2727307684539</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C42" t="n">
-        <v>179.2727307684539</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D42" t="n">
-        <v>179.2727307684539</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>454.3181732824481</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W42" t="n">
-        <v>387.1242309739868</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X42" t="n">
-        <v>179.2727307684539</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y42" t="n">
-        <v>179.2727307684539</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7593,28 +7593,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>366.1018663125844</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C44" t="n">
-        <v>366.1018663125844</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D44" t="n">
-        <v>366.1018663125844</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E44" t="n">
-        <v>366.1018663125844</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U44" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V44" t="n">
-        <v>366.1018663125844</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W44" t="n">
-        <v>366.1018663125844</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X44" t="n">
-        <v>366.1018663125844</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.1018663125844</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,13 +7733,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>726.8597789024521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>726.8597789024521</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U45" t="n">
-        <v>498.6361606388412</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V45" t="n">
-        <v>263.4840524070985</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>20.03527576299844</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4246658592332</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10445,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,7 +10679,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,7 +11153,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11381,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
-        <v>146.95659991356</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22752,19 +22752,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22789,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>138.6760617849701</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22868,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>67.67047238524809</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22956,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>330.8594832468445</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23105,10 +23105,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>15.25994087454254</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>325.8021234036032</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23348,13 +23348,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>20.94884827021639</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6435121988869</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23475,10 +23475,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,10 +23585,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
-        <v>81.69214951654396</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,10 +23636,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23703,19 +23703,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W16" t="n">
-        <v>156.0574714863295</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,13 +23785,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>120.3796451586725</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>114.7662707668343</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>198.920084420089</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24056,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24098,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>141.8841621389552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>151.6815605115344</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>198.920084420089</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>62.82012828698558</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24411,10 +24411,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24460,10 +24460,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>95.79432507597421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>49.67860504479783</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24581,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>302.2574731329353</v>
+        <v>261.7283746111376</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>18.6746259426202</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>9.151119715999982</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,10 +25052,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>37.63267730698377</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,25 +25159,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>330.2403360996553</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25286,10 +25286,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>270.8624047773015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25450,13 +25450,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>99.83164826802533</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25636,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>139.1387058269376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>53.59419498858963</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25769,10 +25769,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>185.1729802755429</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25876,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>316.4871080036351</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>37.01560241437878</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>71731.80321071918</v>
+      </c>
+      <c r="C2" t="n">
+        <v>71731.80321071924</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71731.80321071926</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71731.80321071926</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71731.80321071923</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="H2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="C2" t="n">
+      <c r="I2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="D2" t="n">
+      <c r="J2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="E2" t="n">
+      <c r="N2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="F2" t="n">
-        <v>99696.40351879943</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879943</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="O2" t="n">
-        <v>99696.40351879946</v>
+        <v>99696.40351879945</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879934</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>16914.68964098083</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58486.99703753129</v>
+        <v>7159.793223095719</v>
       </c>
       <c r="C6" t="n">
-        <v>22282.43449401641</v>
+        <v>21949.49922734001</v>
       </c>
       <c r="D6" t="n">
-        <v>22282.43449401643</v>
+        <v>21949.49922734002</v>
       </c>
       <c r="E6" t="n">
-        <v>55910.03449401641</v>
+        <v>55577.09922734002</v>
       </c>
       <c r="F6" t="n">
-        <v>55910.03449401647</v>
+        <v>55577.09922733999</v>
       </c>
       <c r="G6" t="n">
-        <v>55910.03449401643</v>
+        <v>12943.80915158049</v>
       </c>
       <c r="H6" t="n">
-        <v>55910.0344940164</v>
+        <v>66906.24405205285</v>
       </c>
       <c r="I6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="J6" t="n">
-        <v>-7149.908105089815</v>
+        <v>55359.32594206193</v>
       </c>
       <c r="K6" t="n">
-        <v>55910.03449401642</v>
+        <v>66906.2440520528</v>
       </c>
       <c r="L6" t="n">
-        <v>55910.03449401646</v>
+        <v>66906.2440520528</v>
       </c>
       <c r="M6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205285</v>
       </c>
       <c r="N6" t="n">
-        <v>55910.0344940164</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="O6" t="n">
-        <v>55910.03449401648</v>
+        <v>19526.3658345891</v>
       </c>
       <c r="P6" t="n">
-        <v>55910.03449401644</v>
+        <v>66906.24405205279</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>91.0829537758999</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37165,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,7 +37399,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,7 +37873,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
